--- a/FoodTrack/ExcelFiles/Woolworths-list.xlsx
+++ b/FoodTrack/ExcelFiles/Woolworths-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florencia.RojasAmaya\Documents\FoodTracking\FoodTrack\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD25CDBD-F472-4A05-96FE-F5DA7A1DDDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532BA9FE-5D3B-48F9-B77B-BD88A16011D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51060" yWindow="5220" windowWidth="12150" windowHeight="11520" xr2:uid="{13F82ABE-CD69-48C0-B45F-9136D5CAD932}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13F82ABE-CD69-48C0-B45F-9136D5CAD932}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Time Ordered</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Nutella</t>
   </si>
   <si>
-    <t xml:space="preserve">         Honey </t>
-  </si>
-  <si>
     <t>Peanut Butter crunch</t>
   </si>
   <si>
@@ -236,19 +233,10 @@
     <t>Day to order</t>
   </si>
   <si>
-    <t>Ammount to Order</t>
-  </si>
-  <si>
-    <t>glutenfree_needed</t>
-  </si>
-  <si>
-    <t>glutenfree_counted</t>
-  </si>
-  <si>
-    <t>glutenfree_expected</t>
-  </si>
-  <si>
-    <t>DAY_TO_ORDER</t>
+    <t xml:space="preserve">Honey </t>
+  </si>
+  <si>
+    <t>Amount to Order</t>
   </si>
 </sst>
 </file>
@@ -464,9 +452,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,7 +468,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,6 +480,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,12 +499,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,13 +724,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>434340</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>57662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>928687</xdr:colOff>
+      <xdr:colOff>1210627</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1095374</xdr:rowOff>
     </xdr:to>
@@ -764,8 +754,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="152400" y="10563737"/>
-          <a:ext cx="776287" cy="609087"/>
+          <a:off x="434340" y="16433042"/>
+          <a:ext cx="776287" cy="1037712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -834,15 +824,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1273175</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>930275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
+      <xdr:rowOff>1000125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -864,8 +854,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="104775" y="13973175"/>
-          <a:ext cx="825500" cy="638175"/>
+          <a:off x="447675" y="21937980"/>
+          <a:ext cx="825500" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -884,15 +874,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>278607</xdr:colOff>
+      <xdr:colOff>469107</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>54769</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>983457</xdr:colOff>
+      <xdr:rowOff>62389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1173957</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1102519</xdr:rowOff>
+      <xdr:rowOff>1110139</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -914,8 +904,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="278607" y="15732919"/>
-          <a:ext cx="704850" cy="571500"/>
+          <a:off x="469107" y="24903589"/>
+          <a:ext cx="704850" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -984,15 +974,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1038225</xdr:rowOff>
+      <xdr:rowOff>1129665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1014,8 +1004,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="247650" y="17373600"/>
-          <a:ext cx="647700" cy="552450"/>
+          <a:off x="514350" y="27672030"/>
+          <a:ext cx="647700" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1034,15 +1024,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>499110</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1213485</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>1085851</xdr:rowOff>
+      <xdr:rowOff>1131571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1064,8 +1054,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="209550" y="18154650"/>
-          <a:ext cx="714375" cy="600076"/>
+          <a:off x="499110" y="28944570"/>
+          <a:ext cx="714375" cy="1028701"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1084,15 +1074,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>383382</xdr:colOff>
+      <xdr:colOff>558642</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>83342</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
+      <xdr:rowOff>98582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1032510</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>823911</xdr:rowOff>
+      <xdr:rowOff>839151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1114,8 +1104,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="383382" y="22762367"/>
-          <a:ext cx="473868" cy="454819"/>
+          <a:off x="558642" y="36034502"/>
+          <a:ext cx="473868" cy="740569"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1134,15 +1124,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>520065</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1110615</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>1019175</xdr:rowOff>
+      <xdr:rowOff>792481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1164,8 +1154,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="276225" y="23583900"/>
-          <a:ext cx="590550" cy="552450"/>
+          <a:off x="520065" y="37101781"/>
+          <a:ext cx="590550" cy="693420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1190,9 +1180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>976312</xdr:colOff>
+      <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>1521619</xdr:rowOff>
+      <xdr:rowOff>1104900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1214,8 +1204,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="414339" y="26137759"/>
-          <a:ext cx="561973" cy="529860"/>
+          <a:off x="414339" y="40939609"/>
+          <a:ext cx="766761" cy="970391"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,15 +1224,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>288132</xdr:colOff>
+      <xdr:colOff>341472</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1023937</xdr:colOff>
+      <xdr:rowOff>180498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1363980</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
+      <xdr:rowOff>1196340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1264,8 +1254,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="288132" y="47841693"/>
-          <a:ext cx="735805" cy="678657"/>
+          <a:off x="341472" y="73126758"/>
+          <a:ext cx="1022508" cy="1015842"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1284,15 +1274,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
+      <xdr:colOff>511492</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>985837</xdr:colOff>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1206817</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1162050</xdr:rowOff>
+      <xdr:rowOff>1024890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1314,8 +1304,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="290512" y="27879675"/>
-          <a:ext cx="695325" cy="704850"/>
+          <a:off x="511492" y="43784520"/>
+          <a:ext cx="695325" cy="849630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1334,15 +1324,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>291464</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>949325</xdr:colOff>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1379219</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>1038225</xdr:rowOff>
+      <xdr:rowOff>1310640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1364,8 +1354,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="123825" y="49653825"/>
-          <a:ext cx="825500" cy="533400"/>
+          <a:off x="291464" y="76230480"/>
+          <a:ext cx="1087755" cy="1226820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1384,15 +1374,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>386714</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1006475</xdr:colOff>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1341119</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
+      <xdr:rowOff>1167764</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1417,8 +1407,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="180975" y="48739425"/>
-          <a:ext cx="825500" cy="676275"/>
+          <a:off x="386714" y="74729339"/>
+          <a:ext cx="954405" cy="939165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1437,15 +1427,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
+      <xdr:rowOff>192405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1242060</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>1228725</xdr:rowOff>
+      <xdr:rowOff>906780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1467,8 +1457,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="31661100"/>
-          <a:ext cx="695325" cy="657225"/>
+          <a:off x="428625" y="48983265"/>
+          <a:ext cx="813435" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1487,15 +1477,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1198245</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>1397000</xdr:rowOff>
+      <xdr:rowOff>944880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1517,8 +1507,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="152400" y="29718000"/>
-          <a:ext cx="771525" cy="730250"/>
+          <a:off x="426720" y="46415325"/>
+          <a:ext cx="771525" cy="782955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1537,15 +1527,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>442548</xdr:colOff>
+      <xdr:colOff>480648</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>80597</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>981810</xdr:colOff>
+      <xdr:rowOff>210137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1196340</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>1286608</xdr:rowOff>
+      <xdr:rowOff>967740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1567,8 +1557,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="442548" y="32608472"/>
-          <a:ext cx="539262" cy="634511"/>
+          <a:off x="480648" y="50235437"/>
+          <a:ext cx="715692" cy="757603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1587,15 +1577,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>354807</xdr:colOff>
+      <xdr:colOff>408147</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1088232</xdr:colOff>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1303020</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>1590675</xdr:rowOff>
+      <xdr:rowOff>1249680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1617,8 +1607,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="354807" y="43519725"/>
-          <a:ext cx="733425" cy="733425"/>
+          <a:off x="408147" y="67145535"/>
+          <a:ext cx="894873" cy="1129665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1637,15 +1627,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
+      <xdr:colOff>382906</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>847726</xdr:colOff>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1318260</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>1095376</xdr:rowOff>
+      <xdr:rowOff>929640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1667,8 +1657,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200026" y="46882050"/>
-          <a:ext cx="647700" cy="619126"/>
+          <a:off x="382906" y="71706105"/>
+          <a:ext cx="935354" cy="813435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1748,15 +1738,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
+      <xdr:colOff>395287</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>97631</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1100137</xdr:colOff>
+      <xdr:rowOff>211931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1252537</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>1593056</xdr:rowOff>
+      <xdr:rowOff>1264920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1786,8 +1776,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="242887" y="26920031"/>
-          <a:ext cx="857250" cy="638175"/>
+          <a:off x="395287" y="42144791"/>
+          <a:ext cx="857250" cy="1052989"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1809,15 +1799,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1125858</xdr:rowOff>
+      <xdr:rowOff>1202058</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1847,8 +1837,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="276225" y="13125450"/>
-          <a:ext cx="428625" cy="659133"/>
+          <a:off x="581025" y="20642580"/>
+          <a:ext cx="428625" cy="1087758"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1870,13 +1860,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>430530</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>1097280</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1181100</xdr:rowOff>
     </xdr:to>
@@ -1908,8 +1898,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="133350" y="18992850"/>
-          <a:ext cx="666750" cy="666750"/>
+          <a:off x="430530" y="30306645"/>
+          <a:ext cx="666750" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1931,15 +1921,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>319088</xdr:colOff>
+      <xdr:colOff>479108</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>102393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>997744</xdr:colOff>
+      <xdr:rowOff>110013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1157764</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>1314449</xdr:rowOff>
+      <xdr:rowOff>1322069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1969,7 +1959,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="319088" y="33611343"/>
+          <a:off x="479108" y="34575273"/>
           <a:ext cx="678656" cy="1212056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1992,15 +1982,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>253365</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:rowOff>57625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1167765</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>1516856</xdr:rowOff>
+      <xdr:rowOff>1203960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2030,8 +2020,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="25167430"/>
-          <a:ext cx="914400" cy="647701"/>
+          <a:off x="253365" y="39331105"/>
+          <a:ext cx="914400" cy="1146335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2053,15 +2043,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>283369</xdr:colOff>
+      <xdr:colOff>435769</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1035844</xdr:colOff>
+      <xdr:rowOff>21908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1188244</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>1100138</xdr:rowOff>
+      <xdr:rowOff>1107758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2091,8 +2081,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="283369" y="45658088"/>
-          <a:ext cx="752475" cy="657225"/>
+          <a:off x="435769" y="70202108"/>
+          <a:ext cx="752475" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2114,15 +2104,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>436245</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>45243</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:rowOff>106203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>1350168</xdr:rowOff>
+      <xdr:rowOff>1411128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2152,8 +2142,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="276225" y="50537268"/>
-          <a:ext cx="752475" cy="733425"/>
+          <a:off x="436245" y="77784483"/>
+          <a:ext cx="752475" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2175,15 +2165,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300039</xdr:colOff>
+      <xdr:colOff>444819</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>35720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1062039</xdr:colOff>
+      <xdr:rowOff>58580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1206819</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>1369220</xdr:rowOff>
+      <xdr:rowOff>1082040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2213,8 +2203,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="300039" y="51346895"/>
-          <a:ext cx="762000" cy="762000"/>
+          <a:off x="444819" y="79268480"/>
+          <a:ext cx="762000" cy="1023460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,15 +2226,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:colOff>382904</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>77391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1071562</xdr:colOff>
+      <xdr:rowOff>92631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1216342</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>821532</xdr:rowOff>
+      <xdr:rowOff>836772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2272,8 +2262,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="238124" y="52341066"/>
-          <a:ext cx="833438" cy="458391"/>
+          <a:off x="382904" y="80811291"/>
+          <a:ext cx="833438" cy="744141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2295,13 +2285,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>422910</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
+      <xdr:colOff>1070610</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1133475</xdr:rowOff>
     </xdr:to>
@@ -2333,8 +2323,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="171450" y="20783550"/>
-          <a:ext cx="647700" cy="647700"/>
+          <a:off x="422910" y="33127950"/>
+          <a:ext cx="647700" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2356,15 +2346,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>434340</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>857249</xdr:colOff>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>1364455</xdr:rowOff>
+      <xdr:rowOff>1599081</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2394,8 +2384,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="95250" y="53225700"/>
-          <a:ext cx="761999" cy="764380"/>
+          <a:off x="434340" y="82027395"/>
+          <a:ext cx="861060" cy="1509546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2417,15 +2407,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:colOff>396241</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>876301</xdr:colOff>
+      <xdr:rowOff>97153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>1371601</xdr:rowOff>
+      <xdr:rowOff>1537333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2455,8 +2445,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="114301" y="53987701"/>
-          <a:ext cx="762000" cy="762000"/>
+          <a:off x="396241" y="84313393"/>
+          <a:ext cx="822960" cy="1440180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2478,15 +2468,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>350042</xdr:colOff>
+      <xdr:colOff>411002</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1131093</xdr:colOff>
+      <xdr:rowOff>139063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1192053</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>1107281</xdr:rowOff>
+      <xdr:rowOff>1236821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2516,8 +2506,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="350042" y="54940198"/>
-          <a:ext cx="781051" cy="669133"/>
+          <a:off x="411002" y="86031703"/>
+          <a:ext cx="781051" cy="1097758"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2600,15 +2590,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>964407</xdr:colOff>
+      <xdr:rowOff>245745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1078707</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>1164431</xdr:rowOff>
+      <xdr:rowOff>998221</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2638,8 +2628,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="352425" y="28870274"/>
-          <a:ext cx="611982" cy="611982"/>
+          <a:off x="466725" y="45180885"/>
+          <a:ext cx="611982" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2661,15 +2651,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>346330</xdr:colOff>
+      <xdr:colOff>483490</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>106629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:rowOff>220929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1137284</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>1140618</xdr:rowOff>
+      <xdr:rowOff>1254918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2699,8 +2689,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="346330" y="56008854"/>
-          <a:ext cx="653794" cy="605364"/>
+          <a:off x="483490" y="87759489"/>
+          <a:ext cx="653794" cy="1033989"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2722,15 +2712,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
+      <xdr:colOff>492442</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>121441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1012032</xdr:colOff>
+      <xdr:rowOff>182401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>1357311</xdr:rowOff>
+      <xdr:rowOff>1379221</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2760,8 +2750,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="347662" y="56899966"/>
-          <a:ext cx="664370" cy="664370"/>
+          <a:off x="492442" y="89511661"/>
+          <a:ext cx="764858" cy="1196820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2783,15 +2773,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>326233</xdr:colOff>
+      <xdr:colOff>486253</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1100139</xdr:colOff>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1260159</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>1440656</xdr:rowOff>
+      <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2821,8 +2811,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="326233" y="57835800"/>
-          <a:ext cx="773906" cy="773906"/>
+          <a:off x="486253" y="91436190"/>
+          <a:ext cx="773906" cy="948690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2844,15 +2834,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>40483</xdr:colOff>
+      <xdr:colOff>170023</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1345407</xdr:colOff>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1474947</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>1735414</xdr:rowOff>
+      <xdr:rowOff>1773514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2875,8 +2865,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="40483" y="58774013"/>
-          <a:ext cx="1304924" cy="959126"/>
+          <a:off x="170023" y="92926853"/>
+          <a:ext cx="1304924" cy="1673501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3108,15 +3098,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1360714</xdr:colOff>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1520734</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>1762126</xdr:rowOff>
+      <xdr:rowOff>1800226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3139,28 +3129,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="64103251"/>
-          <a:ext cx="1360714" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="160020" y="102690931"/>
+          <a:ext cx="1360714" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1367060</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>1752601</xdr:rowOff>
+      <xdr:rowOff>230506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1542320</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3183,28 +3173,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="65160526"/>
-          <a:ext cx="1367060" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="175260" y="104594026"/>
+          <a:ext cx="1367060" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1364832</xdr:colOff>
+      <xdr:rowOff>207645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1540092</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>1743075</xdr:rowOff>
+      <xdr:rowOff>1864995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3227,28 +3217,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="66227325"/>
-          <a:ext cx="1364832" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="175260" y="106468545"/>
+          <a:ext cx="1364832" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1229630</xdr:colOff>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1313450</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>1447504</xdr:rowOff>
+      <xdr:rowOff>1310640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3271,28 +3261,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="67313175"/>
-          <a:ext cx="1229630" cy="771229"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
+          <a:off x="83820" y="108377355"/>
+          <a:ext cx="1229630" cy="1091565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>392431</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1106933</xdr:colOff>
+      <xdr:rowOff>107487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1348740</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>1752601</xdr:rowOff>
+      <xdr:rowOff>1903756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3315,28 +3305,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285751" y="68303776"/>
-          <a:ext cx="821182" cy="1009650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>289832</xdr:colOff>
+          <a:off x="392431" y="109805007"/>
+          <a:ext cx="956309" cy="1796269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>343172</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>24493</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1089932</xdr:colOff>
+      <xdr:rowOff>161653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>1754459</xdr:rowOff>
+      <xdr:rowOff>2138169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3359,28 +3349,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="289832" y="69366493"/>
-          <a:ext cx="800100" cy="1006066"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+          <a:off x="343172" y="111916573"/>
+          <a:ext cx="914128" cy="1976516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205741</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1282528</xdr:colOff>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1297768</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>1803449</xdr:rowOff>
+      <xdr:rowOff>1493521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3403,28 +3393,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190501" y="70427850"/>
-          <a:ext cx="1092027" cy="1050974"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+          <a:off x="205741" y="114052351"/>
+          <a:ext cx="1092027" cy="1436370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1301312</xdr:colOff>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1539240</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>1466850</xdr:rowOff>
+      <xdr:rowOff>1584596</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3447,28 +3437,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="71580375"/>
-          <a:ext cx="1206062" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>458247</xdr:colOff>
+          <a:off x="201930" y="115768755"/>
+          <a:ext cx="1337310" cy="1510301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>443007</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1157478</xdr:colOff>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>1621671</xdr:rowOff>
+      <xdr:rowOff>1623706</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3491,28 +3481,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="458247" y="74730429"/>
-          <a:ext cx="699231" cy="957642"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>160564</xdr:colOff>
+          <a:off x="443007" y="120427569"/>
+          <a:ext cx="890493" cy="1493077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>465365</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1245577</xdr:colOff>
+      <xdr:rowOff>63254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1341121</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>1807552</xdr:rowOff>
+      <xdr:rowOff>1510371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3534,28 +3524,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="160564" y="72557054"/>
-          <a:ext cx="1085013" cy="1040423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>307731</xdr:colOff>
+          <a:off x="465365" y="117342674"/>
+          <a:ext cx="875756" cy="1447117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>429651</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>36634</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1148806</xdr:colOff>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1270726</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>1751134</xdr:rowOff>
+      <xdr:rowOff>1370134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3578,28 +3568,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="307731" y="73645834"/>
-          <a:ext cx="841075" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>256442</xdr:colOff>
+          <a:off x="429651" y="118940580"/>
+          <a:ext cx="841075" cy="1232974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>317402</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>17801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1216447</xdr:colOff>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1277407</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>1519604</xdr:rowOff>
+      <xdr:rowOff>1230044</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3622,28 +3612,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="256442" y="75760601"/>
-          <a:ext cx="960005" cy="1044603"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>300403</xdr:colOff>
+          <a:off x="317402" y="122110500"/>
+          <a:ext cx="960005" cy="1184324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361363</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>66906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:rowOff>188827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1203960</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>1355371</xdr:rowOff>
+      <xdr:rowOff>1196341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3666,8 +3656,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="300403" y="76876506"/>
-          <a:ext cx="842597" cy="983665"/>
+          <a:off x="361363" y="123731887"/>
+          <a:ext cx="842597" cy="1007514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3767,15 +3757,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>386128</xdr:colOff>
+      <xdr:colOff>538528</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>27842</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1066149</xdr:colOff>
+      <xdr:rowOff>43082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1218549</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1500554</xdr:rowOff>
+      <xdr:rowOff>1515794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3798,7 +3788,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="386128" y="9924317"/>
+          <a:off x="538528" y="9644282"/>
           <a:ext cx="680021" cy="1472712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3813,13 +3803,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>278423</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>43961</xdr:rowOff>
+      <xdr:rowOff>51581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1157299</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>1741324</xdr:rowOff>
+      <xdr:rowOff>1074420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3842,8 +3832,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="278423" y="33438611"/>
-          <a:ext cx="878876" cy="744863"/>
+          <a:off x="278423" y="51410381"/>
+          <a:ext cx="878876" cy="1022839"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3863,7 +3853,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1128347</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>1690784</xdr:rowOff>
+      <xdr:rowOff>1112520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3886,8 +3876,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381001" y="35342635"/>
-          <a:ext cx="747346" cy="657199"/>
+          <a:off x="381001" y="54144985"/>
+          <a:ext cx="747346" cy="1031435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3907,7 +3897,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1033097</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>2243855</xdr:rowOff>
+      <xdr:rowOff>1158240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3930,28 +3920,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="490905" y="39070599"/>
-          <a:ext cx="542192" cy="644606"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600808</xdr:colOff>
+          <a:off x="490905" y="59816049"/>
+          <a:ext cx="542192" cy="1082991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>12728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>967154</xdr:colOff>
+      <xdr:rowOff>35589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1111934</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>2498907</xdr:rowOff>
+      <xdr:rowOff>1604665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3974,28 +3964,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600808" y="39941528"/>
-          <a:ext cx="366346" cy="581179"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>488211</xdr:colOff>
+          <a:off x="434340" y="61269909"/>
+          <a:ext cx="677594" cy="1569076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1892450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1211581</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>985256</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>2185484</xdr:rowOff>
+      <xdr:rowOff>1325880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4018,28 +4008,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="488211" y="40918280"/>
-          <a:ext cx="497045" cy="605454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>673343</xdr:colOff>
+          <a:off x="342901" y="63126770"/>
+          <a:ext cx="868680" cy="1376530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>632461</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>314833</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1010382</xdr:colOff>
+      <xdr:rowOff>138291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1063723</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>1409700</xdr:rowOff>
+      <xdr:rowOff>1539240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4062,28 +4052,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="673343" y="69152008"/>
-          <a:ext cx="337039" cy="1094867"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>322385</xdr:colOff>
+          <a:off x="632461" y="65281671"/>
+          <a:ext cx="431262" cy="1400949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>322384</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>32768</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1056241</xdr:colOff>
+      <xdr:rowOff>93729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1379219</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>1228429</xdr:rowOff>
+      <xdr:rowOff>1120141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4106,8 +4096,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="322385" y="44485943"/>
-          <a:ext cx="733856" cy="719411"/>
+          <a:off x="322384" y="68757549"/>
+          <a:ext cx="1056835" cy="1026412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4127,7 +4117,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1297471</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>1901068</xdr:rowOff>
+      <xdr:rowOff>1127760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4150,8 +4140,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="256443" y="36202327"/>
-          <a:ext cx="1041028" cy="750741"/>
+          <a:off x="256443" y="55450447"/>
+          <a:ext cx="1041028" cy="1120433"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4165,13 +4155,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>322384</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>61158</xdr:rowOff>
+      <xdr:rowOff>61159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1207067</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>81079</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>960121</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4194,8 +4184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="322384" y="37189608"/>
-          <a:ext cx="884683" cy="705721"/>
+          <a:off x="322384" y="56936839"/>
+          <a:ext cx="884683" cy="898962"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4251,15 +4241,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
+      <xdr:colOff>419101</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>155864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1194955</xdr:colOff>
+      <xdr:colOff>1233055</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>2064440</xdr:rowOff>
+      <xdr:rowOff>967740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4282,28 +4272,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381001" y="38217764"/>
-          <a:ext cx="813954" cy="575076"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>311726</xdr:colOff>
+          <a:off x="419101" y="58471724"/>
+          <a:ext cx="813954" cy="811876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426026</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>20447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1091046</xdr:colOff>
+      <xdr:rowOff>149987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1205346</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1065677</xdr:rowOff>
+      <xdr:rowOff>1195217</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4326,8 +4316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="311726" y="7202297"/>
-          <a:ext cx="779320" cy="616605"/>
+          <a:off x="426026" y="11374247"/>
+          <a:ext cx="779320" cy="1045230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4339,9 +4329,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>273844</xdr:colOff>
+      <xdr:colOff>418624</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:rowOff>62863</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="742950" cy="664369"/>
     <xdr:pic>
@@ -4372,7 +4362,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="273844" y="24317323"/>
+          <a:off x="418624" y="38414323"/>
           <a:ext cx="742950" cy="664369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4451,15 +4441,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>297657</xdr:colOff>
+      <xdr:colOff>450057</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:rowOff>117157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>1226343</xdr:rowOff>
+      <xdr:rowOff>845820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4481,8 +4471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="297657" y="30713362"/>
-          <a:ext cx="654843" cy="678656"/>
+          <a:off x="450057" y="47658337"/>
+          <a:ext cx="654843" cy="728663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4538,15 +4528,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>345281</xdr:colOff>
+      <xdr:colOff>398621</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1143757</xdr:colOff>
+      <xdr:colOff>1197097</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>1429088</xdr:rowOff>
+      <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4569,28 +4559,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="345281" y="34459069"/>
-          <a:ext cx="798476" cy="536119"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>178594</xdr:colOff>
+          <a:off x="398621" y="52907089"/>
+          <a:ext cx="798476" cy="783431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>35720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>881063</xdr:colOff>
+      <xdr:rowOff>66200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1071563</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1374676</xdr:rowOff>
+      <xdr:rowOff>1203960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4613,8 +4603,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="178594" y="19857245"/>
-          <a:ext cx="702469" cy="767456"/>
+          <a:off x="369094" y="31742540"/>
+          <a:ext cx="702469" cy="1137760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4926,698 +4916,690 @@
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:4" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:4" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-    </row>
-    <row r="39" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" spans="1:4" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="43" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="1:4" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="1:4" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:4" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-    </row>
-    <row r="48" spans="1:4" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-    </row>
-    <row r="49" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-    </row>
-    <row r="50" spans="1:4" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-    </row>
-    <row r="53" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-    </row>
-    <row r="54" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-    </row>
-    <row r="55" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-    </row>
-    <row r="56" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-    </row>
-    <row r="57" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-    </row>
-    <row r="58" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-    </row>
-    <row r="60" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-    </row>
-    <row r="61" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-    </row>
-    <row r="62" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-    </row>
-    <row r="63" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-    </row>
-    <row r="64" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-    </row>
-    <row r="65" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-    </row>
-    <row r="66" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-    </row>
-    <row r="67" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-    </row>
-    <row r="68" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-    </row>
-    <row r="69" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-    </row>
-    <row r="70" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-    </row>
-    <row r="71" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-    </row>
-    <row r="72" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-    </row>
-    <row r="73" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-    </row>
-    <row r="74" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-    </row>
-    <row r="75" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-    </row>
-    <row r="76" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-    </row>
-    <row r="77" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-    </row>
-    <row r="78" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-    </row>
-    <row r="79" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-    </row>
-    <row r="80" spans="1:4" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-    </row>
-    <row r="81" spans="1:4" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-    </row>
-    <row r="82" spans="1:4" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-    </row>
-    <row r="83" spans="1:4" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-    </row>
-    <row r="84" spans="1:4" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-    </row>
-    <row r="85" spans="1:4" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4" ht="117.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="10"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4" ht="139.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="11"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4" ht="116.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="11"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:4" ht="119.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="11"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:4" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="11"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
